--- a/xray_energy_table.xlsx
+++ b/xray_energy_table.xlsx
@@ -1496,7 +1496,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1580,11 +1579,11 @@
   </sheetPr>
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>

--- a/xray_energy_table.xlsx
+++ b/xray_energy_table.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">0.392</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Oxygen</t>
+    <t xml:space="preserve">O Oxygen</t>
   </si>
   <si>
     <t xml:space="preserve">0.525</t>
@@ -1496,6 +1496,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1579,11 +1580,11 @@
   </sheetPr>
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
